--- a/Projects/MunchieProject/Data/Receipts.xlsx
+++ b/Projects/MunchieProject/Data/Receipts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Mischa-BIO\Projects\MunchieProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D2C395-FF43-4AA9-9C2B-F2190CD95689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077568A6-8772-4EC9-8140-73115AAEDB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1098" yWindow="966" windowWidth="15840" windowHeight="9834" xr2:uid="{32EF5571-EC54-4AE6-8D6A-861B92C73A64}"/>
+    <workbookView xWindow="1098" yWindow="48" windowWidth="18090" windowHeight="10752" xr2:uid="{32EF5571-EC54-4AE6-8D6A-861B92C73A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Receipts" sheetId="3" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:I209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1137,7 +1137,7 @@
         <v>Sam's</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" t="str">
         <v>OZ</v>
@@ -1152,7 +1152,7 @@
         <v>8.392523364485982E-2</v>
       </c>
       <c r="I21">
-        <v>89.800000000000011</v>
+        <v>80.820000000000007</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="str">
-        <v>Asset</v>
+        <v>Supplies</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -3489,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="str">
-        <v>Asset</v>
+        <v>Supplies</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -3518,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="str">
-        <v>Asset</v>
+        <v>Supplies</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -3547,7 +3547,7 @@
         <v>2</v>
       </c>
       <c r="E104" t="str">
-        <v>Asset</v>
+        <v>Supplies</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -3576,7 +3576,7 @@
         <v>2</v>
       </c>
       <c r="E105" t="str">
-        <v>Asset</v>
+        <v>Supplies</v>
       </c>
       <c r="F105">
         <v>12</v>
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="E106" t="str">
-        <v>Asset</v>
+        <v>Supplies</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -3634,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="str">
-        <v>Asset</v>
+        <v>Supplies</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -3663,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="str">
-        <v>Asset</v>
+        <v>Supplies</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -3692,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="str">
-        <v>Asset</v>
+        <v>Supplies</v>
       </c>
       <c r="F109">
         <v>24</v>
@@ -3808,7 +3808,7 @@
         <v>3</v>
       </c>
       <c r="E113" t="str">
-        <v>Asset</v>
+        <v>Supplies</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="str">
-        <v>Asset</v>
+        <v>Supplies</v>
       </c>
       <c r="F183">
         <v>3</v>
@@ -5983,7 +5983,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="str">
-        <v>Asset</v>
+        <v>Supplies</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="str">
-        <v>Asset</v>
+        <v>Supplies</v>
       </c>
       <c r="F189">
         <v>2</v>
